--- a/formats/excel/SSR/2025/Formats RHS 25.xlsx
+++ b/formats/excel/SSR/2025/Formats RHS 25.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3_Outils\installations_statisticiens\GitHub\formats_pmeasyr_ajout_srpsa\formats_pmeasyr\formats\excel\SSR\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDEC0C-A620-7C4D-9275-7E9A45A5E93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24260" windowHeight="14940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24255" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>libelle</t>
   </si>
@@ -305,9 +304,6 @@
     <t>NBCSARR</t>
   </si>
   <si>
-    <t>Nombre d'actes CCAM dans ce RHS (n3)</t>
-  </si>
-  <si>
     <t>NBCCAM</t>
   </si>
   <si>
@@ -333,12 +329,24 @@
   </si>
   <si>
     <t>ZAD</t>
+  </si>
+  <si>
+    <t>Nombre d'actes CSAR dans ce RHS (n3)</t>
+  </si>
+  <si>
+    <t>Nombre d'actes CCAM dans ce RHS (n4)</t>
+  </si>
+  <si>
+    <t>NBCSAR</t>
+  </si>
+  <si>
+    <t>verif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -683,22 +691,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="1015" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +725,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -729,14 +740,18 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E49" si="0">D2+C2-1</f>
+        <f t="shared" ref="E2:E50" si="0">D2+C2-1</f>
         <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>C2+D2-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -747,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D50" si="1">E2+1</f>
+        <f t="shared" ref="D3:D51" si="1">E2+1</f>
         <v>11</v>
       </c>
       <c r="E3">
@@ -757,8 +772,12 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G51" si="2">C3+D3-D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -779,8 +798,12 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -801,8 +824,12 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -823,8 +850,12 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -845,8 +876,12 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -867,8 +902,12 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -889,8 +928,12 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -911,8 +954,12 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -933,8 +980,12 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -955,8 +1006,12 @@
       <c r="F12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -977,8 +1032,12 @@
       <c r="F13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -999,8 +1058,12 @@
       <c r="F14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1021,8 +1084,12 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1043,8 +1110,12 @@
       <c r="F16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1065,8 +1136,12 @@
       <c r="F17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1087,8 +1162,12 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1109,8 +1188,12 @@
       <c r="F19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1131,8 +1214,12 @@
       <c r="F20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1153,8 +1240,12 @@
       <c r="F21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1175,8 +1266,12 @@
       <c r="F22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1197,8 +1292,12 @@
       <c r="F23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1219,8 +1318,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1241,8 +1344,12 @@
       <c r="F25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1263,8 +1370,12 @@
       <c r="F26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1285,8 +1396,12 @@
       <c r="F27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1307,8 +1422,12 @@
       <c r="F28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1329,8 +1448,12 @@
       <c r="F29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1351,8 +1474,12 @@
       <c r="F30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1373,8 +1500,12 @@
       <c r="F31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1395,8 +1526,12 @@
       <c r="F32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1417,8 +1552,12 @@
       <c r="F33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1439,8 +1578,12 @@
       <c r="F34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -1461,8 +1604,12 @@
       <c r="F35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1483,8 +1630,12 @@
       <c r="F36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1505,8 +1656,12 @@
       <c r="F37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1527,8 +1682,12 @@
       <c r="F38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1549,8 +1708,12 @@
       <c r="F39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1571,8 +1734,12 @@
       <c r="F40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1593,8 +1760,12 @@
       <c r="F41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1615,8 +1786,12 @@
       <c r="F42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -1637,8 +1812,12 @@
       <c r="F43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1659,52 +1838,67 @@
       <c r="F44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>86</v>
       </c>
       <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D50" si="3">E44+1</f>
+        <v>180</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E50" si="4">D45+C45-1</f>
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="F46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>6</v>
       </c>
@@ -1712,42 +1906,47 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>183</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f t="shared" si="4"/>
+        <v>185</v>
       </c>
       <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>97</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1756,27 +1955,61 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>186</v>
+        <f t="shared" si="3"/>
+        <v>187</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>187</v>
+        <f t="shared" si="4"/>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="F51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
